--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults - Copy.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801412AD-2690-45D1-9714-84FAD1F0BBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B2FAB-C29F-4BB5-BF42-786D4CA5850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -1170,26 +1170,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'509mm'!$B$6:$B$11</c:f>
+              <c:f>'509mm'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.24361493123772102</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.23182711198428291</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.21414538310412573</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.18860510805500982</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.12573673870333987</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.1257367387033402E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1197,26 +1200,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'509mm'!$D$6:$D$11</c:f>
+              <c:f>'509mm'!$D$6:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
@@ -3932,26 +3938,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'300mm'!$B$7:$B$12</c:f>
+              <c:f>'300mm'!$B$7:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.4175084175084181E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.19191919191919191</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.21548821548821548</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.23905723905723905</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.24242424242424243</c:v>
                 </c:pt>
               </c:numCache>
@@ -3959,26 +3968,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'300mm'!$D$7:$D$12</c:f>
+              <c:f>'300mm'!$D$7:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>399</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>605</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>623</c:v>
                 </c:pt>
               </c:numCache>
@@ -4021,26 +4033,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'300mm'!$B$52:$B$57</c:f>
+              <c:f>'300mm'!$B$53:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22895622895622897</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.21548821548821548</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.18855218855218855</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.13804713804713806</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4048,26 +4063,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'300mm'!$D$52:$D$57</c:f>
+              <c:f>'300mm'!$D$53:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>299</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
@@ -4457,10 +4475,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('369mm'!$B$6,'369mm'!$B$18:$B$23)</c:f>
+              <c:f>('369mm'!$B$6,'369mm'!$B$18:$B$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.25474254742547425</c:v>
                 </c:pt>
@@ -4482,15 +4500,18 @@
                 <c:pt idx="6">
                   <c:v>0.25474254742547425</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('369mm'!$D$6,'369mm'!$D$18:$D$23)</c:f>
+              <c:f>('369mm'!$D$6,'369mm'!$D$18:$D$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>620</c:v>
                 </c:pt>
@@ -4511,6 +4532,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,26 +4933,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'451mm'!$B$6:$B$11</c:f>
+              <c:f>'451mm'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.25942350332594233</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.24611973392461198</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.23503325942350334</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.20177383592017739</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17073170731707318</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.6518847006651879E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4936,26 +4963,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'451mm'!$D$6:$D$11</c:f>
+              <c:f>'451mm'!$D$6:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>509</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>398</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>297</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11030,13 +11060,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>330573</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>101973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>61632</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>155761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11071,13 +11101,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12313,10 +12343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A97" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12329,7 +12359,7 @@
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -12343,7 +12373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -12354,7 +12384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -12366,7 +12396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -12389,7 +12419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -12404,16 +12434,16 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>272</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7:B12" si="0">($B$1-A7)/$B$1</f>
+        <f t="shared" ref="B7:B13" si="0">($B$1-A7)/$B$1</f>
         <v>8.4175084175084181E-2</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" ref="C7:C12" si="1">B7/$B$3</f>
+        <f t="shared" ref="C7:C13" si="1">B7/$B$3</f>
         <v>0.34722222222222221</v>
       </c>
       <c r="D7" s="7">
@@ -12432,28 +12462,31 @@
       <c r="K7" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>0.15151515151515152</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="25">
         <v>310</v>
@@ -12461,21 +12494,25 @@
       <c r="K8" s="24">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>(J8-K8)/J8</f>
+        <v>0.23225806451612904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
-        <v>0.19191919191919191</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="1"/>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="7">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -12487,20 +12524,20 @@
       <c r="J9" s="25"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>0.21548821548821548</v>
+        <v>0.19191919191919191</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D10" s="7">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -12512,20 +12549,20 @@
       <c r="J10" s="25"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
-        <v>0.23905723905723905</v>
+        <v>0.21548821548821548</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="1"/>
-        <v>0.98611111111111105</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D11" s="7">
-        <v>605</v>
+        <v>501</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -12539,20 +12576,20 @@
       </c>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>0.24242424242424243</v>
+        <v>0.23905723905723905</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.98611111111111105</v>
       </c>
       <c r="D12" s="7">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -12568,27 +12605,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>225</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>623</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>42</v>
@@ -12600,46 +12637,46 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>297</v>
-      </c>
-      <c r="B14" s="8">
-        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>625</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1122</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>297</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B15:B22" si="2">($B$1-A15)/$B$1</f>
         <v>0</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C15:C22" si="3">B15/$B$3</f>
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="E15" s="8">
-        <v>743</v>
+        <v>1122</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
@@ -12650,23 +12687,23 @@
       </c>
       <c r="K15" s="39"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="2"/>
-        <v>-3.3670033670033669E-3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3888888888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="E16" s="8">
-        <v>123</v>
+        <v>743</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
@@ -12677,27 +12714,27 @@
       </c>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B17" s="8">
         <f t="shared" si="2"/>
-        <v>6.7340067340067337E-3</v>
+        <v>-3.3670033670033669E-3</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>-1.3888888888888888E-2</v>
       </c>
       <c r="D17" s="8">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="E17" s="8">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>21</v>
@@ -12706,7 +12743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>295</v>
       </c>
@@ -12719,10 +12756,10 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D18" s="8">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="E18" s="8">
-        <v>771</v>
+        <v>325</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
@@ -12734,24 +12771,28 @@
       <c r="K18" s="39">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>(J18-K18)/J18</f>
+        <v>0.24333333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" si="2"/>
-        <v>1.3468013468013467E-2</v>
+        <v>6.7340067340067337E-3</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>510</v>
+        <v>401</v>
       </c>
       <c r="E19" s="8">
-        <v>1001</v>
+        <v>771</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8">
@@ -12760,283 +12801,283 @@
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" s="8">
         <f t="shared" si="2"/>
-        <v>6.7340067340067337E-3</v>
+        <v>1.3468013468013467E-2</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D20" s="8">
-        <v>305</v>
+        <v>510</v>
       </c>
       <c r="E20" s="8">
-        <v>564</v>
+        <v>1001</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B21" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.7340067340067337E-3</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D21" s="8">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="E21" s="8">
-        <v>126</v>
+        <v>564</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>297</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>98</v>
+      </c>
+      <c r="E22" s="8">
+        <v>126</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>281</v>
       </c>
-      <c r="B22" s="10">
-        <f>($B$1-A22)/$B$1</f>
+      <c r="B23" s="10">
+        <f>($B$1-A23)/$B$1</f>
         <v>5.387205387205387E-2</v>
       </c>
-      <c r="C22" s="10">
-        <f>B22/$B$3</f>
+      <c r="C23" s="10">
+        <f>B23/$B$3</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>175</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>50</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>280</v>
-      </c>
-      <c r="B23" s="10">
-        <f t="shared" ref="B23:B28" si="4">($B$1-A23)/$B$1</f>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23:C28" si="5">B23/$B$3</f>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D23" s="10">
-        <v>196</v>
-      </c>
-      <c r="E23" s="10">
-        <v>92</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>280</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B24:B29" si="4">($B$1-A24)/$B$1</f>
         <v>5.7239057239057242E-2</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C24:C29" si="5">B24/$B$3</f>
         <v>0.2361111111111111</v>
       </c>
       <c r="D24" s="10">
-        <v>402</v>
+        <v>196</v>
       </c>
       <c r="E24" s="10">
-        <v>480</v>
+        <v>92</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="4"/>
-        <v>5.387205387205387E-2</v>
+        <v>5.7239057239057242E-2</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D25" s="10">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E25" s="10">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <v>5.387205387205387E-2</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D26" s="10">
-        <v>613</v>
+        <v>409</v>
       </c>
       <c r="E26" s="10">
-        <v>865</v>
+        <v>497</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="4"/>
-        <v>6.3973063973063973E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="5"/>
-        <v>0.2638888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="D27" s="10">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="E27" s="10">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="4"/>
-        <v>5.7239057239057242E-2</v>
+        <v>6.3973063973063973E-2</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="5"/>
-        <v>0.2361111111111111</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D28" s="10">
-        <v>285</v>
+        <v>605</v>
       </c>
       <c r="E28" s="10">
-        <v>273</v>
+        <v>851</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B29" s="10">
-        <f>($B$1-A29)/$B$1</f>
-        <v>6.7340067340067339E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.7239057239057242E-2</v>
       </c>
       <c r="C29" s="10">
-        <f>B29/$B$3</f>
-        <v>0.27777777777777779</v>
+        <f t="shared" si="5"/>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D29" s="10">
-        <v>505</v>
+        <v>285</v>
       </c>
       <c r="E29" s="10">
-        <v>676</v>
+        <v>273</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>277</v>
+      </c>
+      <c r="B30" s="10">
+        <f>($B$1-A30)/$B$1</f>
+        <v>6.7340067340067339E-2</v>
+      </c>
+      <c r="C30" s="10">
+        <f>B30/$B$3</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D30" s="10">
+        <v>505</v>
+      </c>
+      <c r="E30" s="10">
+        <v>676</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>254</v>
       </c>
-      <c r="B30" s="11">
-        <f t="shared" ref="B30:B36" si="6">($B$1-A30)/$B$1</f>
+      <c r="B31" s="11">
+        <f t="shared" ref="B31:B37" si="6">($B$1-A31)/$B$1</f>
         <v>0.14478114478114479</v>
       </c>
-      <c r="C30" s="11">
-        <f t="shared" ref="C30:C36" si="7">B30/$B$3</f>
+      <c r="C31" s="11">
+        <f t="shared" ref="C31:C37" si="7">B31/$B$3</f>
         <v>0.59722222222222221</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>277</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>30</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>253</v>
-      </c>
-      <c r="B31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="C31" s="11">
-        <f t="shared" si="7"/>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D31" s="11">
-        <v>400</v>
-      </c>
-      <c r="E31" s="11">
-        <v>177</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>253</v>
       </c>
@@ -13049,14 +13090,14 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D32" s="11">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="E32" s="11">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
@@ -13064,25 +13105,25 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" s="11">
         <f t="shared" si="6"/>
-        <v>0.15151515151515152</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" si="7"/>
-        <v>0.625</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D33" s="11">
-        <v>611</v>
+        <v>290</v>
       </c>
       <c r="E33" s="11">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -13098,33 +13139,33 @@
         <v>0.625</v>
       </c>
       <c r="D34" s="11">
-        <v>492</v>
+        <v>611</v>
       </c>
       <c r="E34" s="11">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B35" s="11">
         <f t="shared" si="6"/>
-        <v>0.14478114478114479</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" si="7"/>
-        <v>0.59722222222222221</v>
+        <v>0.625</v>
       </c>
       <c r="D35" s="11">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="E35" s="11">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11">
@@ -13133,47 +13174,47 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B36" s="11">
         <f t="shared" si="6"/>
-        <v>0.15151515151515152</v>
+        <v>0.14478114478114479</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" si="7"/>
-        <v>0.625</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D36" s="11">
-        <v>598</v>
+        <v>353</v>
       </c>
       <c r="E36" s="11">
-        <v>416</v>
+        <v>135</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>241</v>
-      </c>
-      <c r="B37" s="12">
-        <f t="shared" ref="B37:B43" si="8">($B$1-A37)/$B$1</f>
-        <v>0.18855218855218855</v>
-      </c>
-      <c r="C37" s="12">
-        <f t="shared" ref="C37:C43" si="9">B37/$B$3</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D37" s="12">
-        <v>609</v>
-      </c>
-      <c r="E37" s="12">
-        <v>258</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
+      <c r="A37" s="11">
+        <v>252</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="D37" s="11">
+        <v>598</v>
+      </c>
+      <c r="E37" s="11">
+        <v>416</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
         <v>1</v>
       </c>
     </row>
@@ -13182,18 +13223,18 @@
         <v>241</v>
       </c>
       <c r="B38" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B38:B44" si="8">($B$1-A38)/$B$1</f>
         <v>0.18855218855218855</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C38:C44" si="9">B38/$B$3</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="D38" s="12">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="E38" s="12">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
@@ -13213,37 +13254,37 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D39" s="12">
-        <v>494</v>
+        <v>626</v>
       </c>
       <c r="E39" s="12">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" s="12">
         <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
+        <v>0.18855218855218855</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="9"/>
-        <v>0.76388888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="D40" s="12">
-        <v>298</v>
+        <v>494</v>
       </c>
       <c r="E40" s="12">
-        <v>2.25</v>
+        <v>166</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -13259,10 +13300,10 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D41" s="12">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="E41" s="12">
-        <v>86</v>
+        <v>2.25</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12">
@@ -13271,167 +13312,169 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B42" s="12">
         <f t="shared" si="8"/>
-        <v>0.19191919191919191</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="9"/>
-        <v>0.79166666666666663</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="D42" s="12">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E42" s="12">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
+        <v>0.19191919191919191</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="9"/>
-        <v>0.76388888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D43" s="12">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E43" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>61</v>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>242</v>
+      </c>
+      <c r="B44" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="9"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D44" s="12">
+        <v>330</v>
+      </c>
+      <c r="E44" s="12">
+        <v>25</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47">
-        <v>300</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>225</v>
+        <v>300</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>23</v>
       </c>
-      <c r="B49">
-        <f>(B47-B48)/B47</f>
+      <c r="B50">
+        <f>(B48-B49)/B48</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G52" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>225</v>
-      </c>
-      <c r="B52" s="16">
-        <f>($B$47-A52)/$B$47</f>
-        <v>0.25</v>
-      </c>
-      <c r="C52" s="16">
-        <f t="shared" ref="C52:C57" si="10">B52/$B$49</f>
-        <v>1</v>
-      </c>
-      <c r="D52" s="16">
-        <v>622</v>
-      </c>
-      <c r="E52" s="16">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B53" s="16">
-        <f>($B$1-A53)/$B$1</f>
-        <v>0.22895622895622897</v>
+        <f>($B$48-A53)/$B$48</f>
+        <v>0.25</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" si="10"/>
-        <v>0.91582491582491588</v>
+        <f t="shared" ref="C53:C59" si="10">B53/$B$50</f>
+        <v>1</v>
       </c>
       <c r="D53" s="16">
-        <v>499</v>
+        <v>622</v>
       </c>
       <c r="E53" s="16">
         <v>0</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="B54" s="16">
-        <f>($B$1-A54)/$B$1</f>
-        <v>0.21548821548821548</v>
+        <f>($B$48-A54)/$B$48</f>
+        <v>0</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="10"/>
-        <v>0.86195286195286192</v>
+        <v>0</v>
       </c>
       <c r="D54" s="16">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="E54" s="16">
         <v>0</v>
@@ -13443,18 +13486,18 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B55" s="16">
         <f>($B$1-A55)/$B$1</f>
-        <v>0.18855218855218855</v>
+        <v>0.22895622895622897</v>
       </c>
       <c r="C55" s="16">
         <f t="shared" si="10"/>
-        <v>0.75420875420875422</v>
+        <v>0.91582491582491588</v>
       </c>
       <c r="D55" s="16">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
@@ -13466,18 +13509,18 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B56" s="16">
         <f>($B$1-A56)/$B$1</f>
-        <v>0.13804713804713806</v>
+        <v>0.21548821548821548</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="10"/>
-        <v>0.55218855218855223</v>
+        <v>0.86195286195286192</v>
       </c>
       <c r="D56" s="16">
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="E56" s="16">
         <v>0</v>
@@ -13489,18 +13532,18 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="B57" s="16">
         <f>($B$1-A57)/$B$1</f>
-        <v>3.0303030303030304E-2</v>
+        <v>0.18855218855218855</v>
       </c>
       <c r="C57" s="16">
         <f t="shared" si="10"/>
-        <v>0.12121212121212122</v>
+        <v>0.75420875420875422</v>
       </c>
       <c r="D57" s="16">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="E57" s="16">
         <v>0</v>
@@ -13514,71 +13557,71 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
-        <v>299</v>
-      </c>
-      <c r="B58" s="11">
-        <f>($B$47-A58)/$B$47</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="C58" s="11">
-        <f>B58/$B$49</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D58" s="11">
-        <v>136</v>
-      </c>
-      <c r="E58" s="11">
-        <v>223</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11">
-        <v>1</v>
+      <c r="A58" s="16">
+        <v>256</v>
+      </c>
+      <c r="B58" s="16">
+        <f>($B$1-A58)/$B$1</f>
+        <v>0.13804713804713806</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" si="10"/>
+        <v>0.55218855218855223</v>
+      </c>
+      <c r="D58" s="16">
+        <v>200</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
-        <v>298</v>
-      </c>
-      <c r="B59" s="11">
-        <f t="shared" ref="B59:B67" si="11">($B$47-A59)/$B$47</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="C59" s="11">
-        <f t="shared" ref="C59:C67" si="12">B59/$B$49</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="D59" s="11">
-        <v>208</v>
-      </c>
-      <c r="E59" s="11">
-        <v>373</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11">
-        <v>1</v>
+      <c r="A59" s="16">
+        <v>288</v>
+      </c>
+      <c r="B59" s="16">
+        <f>($B$1-A59)/$B$1</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="C59" s="16">
+        <f t="shared" si="10"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D59" s="16">
+        <v>101</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="11"/>
-        <v>0.01</v>
+        <f>($B$48-A60)/$B$48</f>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="C60" s="11">
-        <f t="shared" si="12"/>
-        <v>0.04</v>
+        <f>B60/$B$50</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="D60" s="11">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="E60" s="11">
-        <v>575</v>
+        <v>223</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11">
@@ -13587,21 +13630,21 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" si="11"/>
-        <v>1.3333333333333334E-2</v>
+        <f t="shared" ref="B61:B69" si="11">($B$48-A61)/$B$48</f>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="C61" s="11">
-        <f t="shared" si="12"/>
-        <v>5.3333333333333337E-2</v>
+        <f t="shared" ref="C61:C69" si="12">B61/$B$50</f>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="D61" s="11">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="E61" s="11">
-        <v>765</v>
+        <v>373</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11">
@@ -13609,68 +13652,68 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="35">
+      <c r="A62" s="11">
+        <v>297</v>
+      </c>
+      <c r="B62" s="11">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="12"/>
+        <v>0.04</v>
+      </c>
+      <c r="D62" s="11">
+        <v>304</v>
+      </c>
+      <c r="E62" s="11">
+        <v>575</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>296</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="12"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D63" s="11">
+        <v>397</v>
+      </c>
+      <c r="E63" s="11">
+        <v>765</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="35">
         <v>294</v>
       </c>
-      <c r="B62" s="35">
+      <c r="B64" s="35">
         <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C64" s="35">
         <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D64" s="35">
         <v>502</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E64" s="35">
         <v>970</v>
-      </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="35">
-        <v>293</v>
-      </c>
-      <c r="B63" s="35">
-        <f t="shared" si="11"/>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="C63" s="35">
-        <f t="shared" si="12"/>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="D63" s="35">
-        <v>595</v>
-      </c>
-      <c r="E63" s="35">
-        <v>1136</v>
-      </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
-        <v>292</v>
-      </c>
-      <c r="B64" s="35">
-        <f t="shared" si="11"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="C64" s="35">
-        <f t="shared" si="12"/>
-        <v>0.10666666666666667</v>
-      </c>
-      <c r="D64" s="35">
-        <v>620</v>
-      </c>
-      <c r="E64" s="35">
-        <v>1182</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35">
@@ -13679,67 +13722,67 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="35">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B65" s="35">
         <f t="shared" si="11"/>
-        <v>0.02</v>
+        <v>2.3333333333333334E-2</v>
       </c>
       <c r="C65" s="35">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="D65" s="35">
-        <v>431</v>
+        <v>595</v>
       </c>
       <c r="E65" s="35">
-        <v>783</v>
+        <v>1136</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="35">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B66" s="35">
         <f t="shared" si="11"/>
-        <v>0.02</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="C66" s="35">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="D66" s="35">
-        <v>354</v>
+        <v>620</v>
       </c>
       <c r="E66" s="35">
-        <v>617</v>
+        <v>1182</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="35">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B67" s="35">
         <f t="shared" si="11"/>
-        <v>1.6666666666666666E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C67" s="35">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D67" s="35">
-        <v>249</v>
+        <v>431</v>
       </c>
       <c r="E67" s="35">
-        <v>390</v>
+        <v>783</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35">
@@ -13747,68 +13790,68 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
-        <v>271</v>
-      </c>
-      <c r="B68" s="8">
-        <f>($B$47-A68)/$B$47</f>
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="C68" s="8">
-        <f>B68/$B$49</f>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="D68" s="8">
-        <v>297</v>
-      </c>
-      <c r="E68" s="8">
-        <v>169</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8">
-        <v>1</v>
+      <c r="A68" s="35">
+        <v>294</v>
+      </c>
+      <c r="B68" s="35">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
+      <c r="C68" s="35">
+        <f t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="D68" s="35">
+        <v>354</v>
+      </c>
+      <c r="E68" s="35">
+        <v>617</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
-        <v>270</v>
-      </c>
-      <c r="B69" s="8">
-        <f t="shared" ref="B69:B76" si="13">($B$47-A69)/$B$47</f>
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="8">
-        <f t="shared" ref="C69:C76" si="14">B69/$B$49</f>
-        <v>0.4</v>
-      </c>
-      <c r="D69" s="8">
-        <v>402</v>
-      </c>
-      <c r="E69" s="8">
-        <v>342</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8">
-        <v>1</v>
+      <c r="A69" s="35">
+        <v>295</v>
+      </c>
+      <c r="B69" s="35">
+        <f t="shared" si="11"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C69" s="35">
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D69" s="35">
+        <v>249</v>
+      </c>
+      <c r="E69" s="35">
+        <v>390</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B70" s="8">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
+        <f>($B$48-A70)/$B$48</f>
+        <v>9.6666666666666665E-2</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
+        <f>B70/$B$50</f>
+        <v>0.38666666666666666</v>
       </c>
       <c r="D70" s="8">
-        <v>499</v>
+        <v>297</v>
       </c>
       <c r="E70" s="8">
-        <v>498</v>
+        <v>169</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8">
@@ -13817,21 +13860,21 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B71" s="8">
-        <f t="shared" si="13"/>
-        <v>0.10333333333333333</v>
+        <f t="shared" ref="B71:B78" si="13">($B$48-A71)/$B$48</f>
+        <v>0.1</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="14"/>
-        <v>0.41333333333333333</v>
+        <f t="shared" ref="C71:C78" si="14">B71/$B$50</f>
+        <v>0.4</v>
       </c>
       <c r="D71" s="8">
-        <v>599</v>
+        <v>402</v>
       </c>
       <c r="E71" s="8">
-        <v>656</v>
+        <v>342</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
@@ -13840,21 +13883,21 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B72" s="8">
         <f t="shared" si="13"/>
-        <v>0.10333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C72" s="8">
         <f t="shared" si="14"/>
-        <v>0.41333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D72" s="8">
-        <v>621</v>
+        <v>499</v>
       </c>
       <c r="E72" s="8">
-        <v>691</v>
+        <v>498</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8">
@@ -13863,67 +13906,67 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B73" s="8">
         <f t="shared" si="13"/>
-        <v>0.1</v>
+        <v>0.10333333333333333</v>
       </c>
       <c r="C73" s="8">
         <f t="shared" si="14"/>
-        <v>0.4</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="D73" s="8">
-        <v>449</v>
+        <v>599</v>
       </c>
       <c r="E73" s="8">
-        <v>423</v>
+        <v>656</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B74" s="8">
         <f t="shared" si="13"/>
-        <v>0.1</v>
+        <v>0.10333333333333333</v>
       </c>
       <c r="C74" s="8">
         <f t="shared" si="14"/>
-        <v>0.4</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="D74" s="8">
-        <v>350</v>
+        <v>621</v>
       </c>
       <c r="E74" s="8">
-        <v>267</v>
+        <v>691</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B75" s="8">
         <f t="shared" si="13"/>
-        <v>9.6666666666666665E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" si="14"/>
-        <v>0.38666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D75" s="8">
-        <v>249</v>
+        <v>449</v>
       </c>
       <c r="E75" s="8">
-        <v>108</v>
+        <v>423</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8">
@@ -13932,21 +13975,21 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B76" s="8">
         <f t="shared" si="13"/>
-        <v>9.6666666666666665E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C76" s="8">
         <f t="shared" si="14"/>
-        <v>0.38666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D76" s="8">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E76" s="8">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
@@ -13960,49 +14003,49 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="37">
-        <v>244</v>
-      </c>
-      <c r="B77" s="37">
-        <f>($B$47-A77)/$B$47</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C77" s="37">
-        <f>B77/$B$49</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D77" s="37">
-        <v>347</v>
-      </c>
-      <c r="E77" s="37">
-        <v>35</v>
-      </c>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37">
-        <v>1</v>
+      <c r="A77" s="8">
+        <v>271</v>
+      </c>
+      <c r="B77" s="8">
+        <f t="shared" si="13"/>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" si="14"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D77" s="8">
+        <v>249</v>
+      </c>
+      <c r="E77" s="8">
+        <v>108</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="37">
-        <v>244</v>
-      </c>
-      <c r="B78" s="37">
-        <f>($B$47-A78)/$B$47</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C78" s="37">
-        <f>B78/$B$49</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D78" s="37">
-        <v>449</v>
-      </c>
-      <c r="E78" s="37">
-        <v>140</v>
-      </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37">
-        <v>1</v>
+      <c r="A78" s="8">
+        <v>271</v>
+      </c>
+      <c r="B78" s="8">
+        <f t="shared" si="13"/>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" si="14"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D78" s="8">
+        <v>200</v>
+      </c>
+      <c r="E78" s="8">
+        <v>31</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8">
+        <v>0</v>
       </c>
       <c r="J78">
         <f>300*0.75</f>
@@ -14018,18 +14061,18 @@
         <v>244</v>
       </c>
       <c r="B79" s="37">
-        <f>($B$47-A79)/$B$47</f>
+        <f>($B$48-A79)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C79" s="37">
-        <f>B79/$B$49</f>
+        <f>B79/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D79" s="37">
-        <v>502</v>
+        <v>347</v>
       </c>
       <c r="E79" s="37">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37">
@@ -14050,18 +14093,18 @@
         <v>244</v>
       </c>
       <c r="B80" s="37">
-        <f>($B$47-A80)/$B$47</f>
+        <f>($B$48-A80)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C80" s="37">
-        <f>B80/$B$49</f>
+        <f>B80/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D80" s="37">
-        <v>545</v>
+        <v>449</v>
       </c>
       <c r="E80" s="37">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37">
@@ -14073,18 +14116,18 @@
         <v>244</v>
       </c>
       <c r="B81" s="37">
-        <f>($B$47-A81)/$B$47</f>
+        <f>($B$48-A81)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C81" s="37">
-        <f>B81/$B$49</f>
+        <f>B81/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D81" s="37">
-        <v>603</v>
+        <v>502</v>
       </c>
       <c r="E81" s="37">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37">
@@ -14096,18 +14139,18 @@
         <v>244</v>
       </c>
       <c r="B82" s="37">
-        <f>($B$47-A82)/$B$47</f>
+        <f>($B$48-A82)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C82" s="37">
-        <f>B82/$B$49</f>
+        <f>B82/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D82" s="37">
-        <v>625</v>
+        <v>545</v>
       </c>
       <c r="E82" s="37">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37">
@@ -14119,22 +14162,22 @@
         <v>244</v>
       </c>
       <c r="B83" s="37">
-        <f>($B$47-A83)/$B$47</f>
+        <f>($B$48-A83)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C83" s="37">
-        <f>B83/$B$49</f>
+        <f>B83/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D83" s="37">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="E83" s="37">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -14142,22 +14185,22 @@
         <v>244</v>
       </c>
       <c r="B84" s="37">
-        <f>($B$47-A84)/$B$47</f>
+        <f>($B$48-A84)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C84" s="37">
-        <f>B84/$B$49</f>
+        <f>B84/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D84" s="37">
-        <v>474</v>
+        <v>625</v>
       </c>
       <c r="E84" s="37">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -14165,18 +14208,18 @@
         <v>244</v>
       </c>
       <c r="B85" s="37">
-        <f>($B$47-A85)/$B$47</f>
+        <f>($B$48-A85)/$B$48</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="C85" s="37">
-        <f>B85/$B$49</f>
+        <f>B85/$B$50</f>
         <v>0.7466666666666667</v>
       </c>
       <c r="D85" s="37">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="E85" s="37">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37">
@@ -14184,49 +14227,49 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="42">
-        <v>226</v>
-      </c>
-      <c r="B86" s="42">
-        <f t="shared" ref="B86:B93" si="15">($B$47-A86)/$B$47</f>
-        <v>0.24666666666666667</v>
-      </c>
-      <c r="C86" s="42">
-        <f>B86/$B$49</f>
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="D86" s="42">
-        <v>510</v>
-      </c>
-      <c r="E86" s="42">
-        <v>3</v>
-      </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42">
-        <v>1</v>
+      <c r="A86" s="37">
+        <v>244</v>
+      </c>
+      <c r="B86" s="37">
+        <f>($B$48-A86)/$B$48</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C86" s="37">
+        <f>B86/$B$50</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D86" s="37">
+        <v>474</v>
+      </c>
+      <c r="E86" s="37">
+        <v>174</v>
+      </c>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="42">
-        <v>225</v>
-      </c>
-      <c r="B87" s="42">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="C87" s="42">
-        <f t="shared" ref="C87:C93" si="16">B87/$B$49</f>
-        <v>1</v>
-      </c>
-      <c r="D87" s="42">
-        <v>540</v>
-      </c>
-      <c r="E87" s="42">
-        <v>11.9</v>
-      </c>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42">
-        <v>1</v>
+      <c r="A87" s="37">
+        <v>244</v>
+      </c>
+      <c r="B87" s="37">
+        <f>($B$48-A87)/$B$48</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C87" s="37">
+        <f>B87/$B$50</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D87" s="37">
+        <v>373</v>
+      </c>
+      <c r="E87" s="37">
+        <v>76</v>
+      </c>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37">
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>69</v>
@@ -14234,21 +14277,21 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="42">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B88" s="42">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
+        <f t="shared" ref="B88:B95" si="15">($B$48-A88)/$B$48</f>
+        <v>0.24666666666666667</v>
       </c>
       <c r="C88" s="42">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>B88/$B$50</f>
+        <v>0.98666666666666669</v>
       </c>
       <c r="D88" s="42">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="E88" s="42">
-        <v>33.33</v>
+        <v>3</v>
       </c>
       <c r="F88" s="42"/>
       <c r="G88" s="42">
@@ -14264,14 +14307,14 @@
         <v>0.25</v>
       </c>
       <c r="C89" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="C89:C95" si="16">B89/$B$50</f>
         <v>1</v>
       </c>
       <c r="D89" s="42">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="E89" s="42">
-        <v>49</v>
+        <v>11.9</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="42">
@@ -14291,10 +14334,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="42">
-        <v>627</v>
+        <v>582</v>
       </c>
       <c r="E90" s="42">
-        <v>59</v>
+        <v>33.33</v>
       </c>
       <c r="F90" s="42"/>
       <c r="G90" s="42">
@@ -14314,14 +14357,14 @@
         <v>1</v>
       </c>
       <c r="D91" s="42">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="E91" s="42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F91" s="42"/>
       <c r="G91" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -14337,179 +14380,179 @@
         <v>1</v>
       </c>
       <c r="D92" s="42">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="E92" s="42">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F92" s="42"/>
       <c r="G92" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="42">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B93" s="42">
         <f t="shared" si="15"/>
-        <v>0.24666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="C93" s="42">
         <f t="shared" si="16"/>
-        <v>0.98666666666666669</v>
+        <v>1</v>
       </c>
       <c r="D93" s="42">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="E93" s="42">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="42">
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="42">
+        <v>225</v>
+      </c>
+      <c r="B94" s="42">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="C94" s="42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="42">
+        <v>558</v>
+      </c>
+      <c r="E94" s="42">
+        <v>26</v>
+      </c>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42">
+        <v>0</v>
+      </c>
+    </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96">
-        <v>227</v>
+      <c r="A95" s="42">
+        <v>226</v>
+      </c>
+      <c r="B95" s="42">
+        <f t="shared" si="15"/>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C95" s="42">
+        <f t="shared" si="16"/>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D95" s="42">
+        <v>514</v>
+      </c>
+      <c r="E95" s="42">
+        <v>5</v>
+      </c>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>23</v>
       </c>
-      <c r="D97">
-        <f>(D95-D96)/D95</f>
+      <c r="D99">
+        <f>(D97-D98)/D97</f>
         <v>0.24333333333333335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="43">
-        <v>228</v>
-      </c>
-      <c r="B99" s="43">
-        <f>($D$95-A99)/$D$95</f>
-        <v>0.24</v>
-      </c>
-      <c r="C99" s="43">
-        <f>B99/$D$97</f>
-        <v>0.98630136986301364</v>
-      </c>
-      <c r="D99" s="43">
-        <v>621</v>
-      </c>
-      <c r="E99" s="43">
-        <v>47</v>
-      </c>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43">
-        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="43">
-        <v>228</v>
-      </c>
-      <c r="B100" s="43">
-        <f t="shared" ref="B100:B107" si="17">($D$95-A100)/$D$95</f>
-        <v>0.24</v>
-      </c>
-      <c r="C100" s="43">
-        <f t="shared" ref="C100:C107" si="18">B100/$D$97</f>
-        <v>0.98630136986301364</v>
-      </c>
-      <c r="D100" s="43">
-        <v>602</v>
-      </c>
-      <c r="E100" s="43">
-        <v>38</v>
-      </c>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43">
-        <v>0</v>
+      <c r="A100" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="40" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="43">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B101" s="43">
-        <f t="shared" si="17"/>
-        <v>0.23666666666666666</v>
+        <f>($D$97-A101)/$D$97</f>
+        <v>0.24</v>
       </c>
       <c r="C101" s="43">
-        <f t="shared" si="18"/>
-        <v>0.97260273972602729</v>
+        <f>B101/$D$99</f>
+        <v>0.98630136986301364</v>
       </c>
       <c r="D101" s="43">
-        <v>571</v>
+        <v>621</v>
       </c>
       <c r="E101" s="43">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F101" s="43"/>
       <c r="G101" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="43">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B102" s="43">
-        <f t="shared" si="17"/>
-        <v>0.23666666666666666</v>
+        <f t="shared" ref="B102:B109" si="17">($D$97-A102)/$D$97</f>
+        <v>0.24</v>
       </c>
       <c r="C102" s="43">
-        <f>B102/$D$97</f>
-        <v>0.97260273972602729</v>
+        <f t="shared" ref="C102:C109" si="18">B102/$D$99</f>
+        <v>0.98630136986301364</v>
       </c>
       <c r="D102" s="43">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="E102" s="43">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F102" s="43"/>
       <c r="G102" s="43">
@@ -14518,21 +14561,21 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="43">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B103" s="43">
         <f t="shared" si="17"/>
-        <v>0.23333333333333334</v>
+        <v>0.23666666666666666</v>
       </c>
       <c r="C103" s="43">
         <f t="shared" si="18"/>
-        <v>0.95890410958904104</v>
+        <v>0.97260273972602729</v>
       </c>
       <c r="D103" s="43">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="E103" s="43">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F103" s="43"/>
       <c r="G103" s="43">
@@ -14541,21 +14584,21 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="43">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B104" s="43">
         <f t="shared" si="17"/>
-        <v>0.23333333333333334</v>
+        <v>0.23666666666666666</v>
       </c>
       <c r="C104" s="43">
-        <f t="shared" si="18"/>
-        <v>0.95890410958904104</v>
+        <f>B104/$D$99</f>
+        <v>0.97260273972602729</v>
       </c>
       <c r="D104" s="43">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="E104" s="43">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F104" s="43"/>
       <c r="G104" s="43">
@@ -14564,163 +14607,163 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="43">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B105" s="43">
         <f t="shared" si="17"/>
-        <v>0.24</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C105" s="43">
         <f t="shared" si="18"/>
-        <v>0.98630136986301364</v>
+        <v>0.95890410958904104</v>
       </c>
       <c r="D105" s="43">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E105" s="43">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F105" s="43"/>
       <c r="G105" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="43">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B106" s="43">
         <f t="shared" si="17"/>
-        <v>0.24</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C106" s="43">
         <f t="shared" si="18"/>
-        <v>0.98630136986301364</v>
+        <v>0.95890410958904104</v>
       </c>
       <c r="D106" s="43">
-        <v>593</v>
+        <v>537</v>
       </c>
       <c r="E106" s="43">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F106" s="43"/>
       <c r="G106" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="44">
+      <c r="A107" s="43">
         <v>228</v>
       </c>
       <c r="B107" s="43">
         <f t="shared" si="17"/>
         <v>0.24</v>
       </c>
-      <c r="C107" s="44">
+      <c r="C107" s="43">
         <f t="shared" si="18"/>
         <v>0.98630136986301364</v>
       </c>
-      <c r="D107" s="44">
+      <c r="D107" s="43">
+        <v>581</v>
+      </c>
+      <c r="E107" s="43">
+        <v>32</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="43">
+        <v>228</v>
+      </c>
+      <c r="B108" s="43">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="C108" s="43">
+        <f t="shared" si="18"/>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D108" s="43">
+        <v>593</v>
+      </c>
+      <c r="E108" s="43">
+        <v>38</v>
+      </c>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="44">
+        <v>228</v>
+      </c>
+      <c r="B109" s="43">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="C109" s="44">
+        <f t="shared" si="18"/>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D109" s="44">
         <v>615</v>
       </c>
-      <c r="E107" s="44">
+      <c r="E109" s="44">
         <v>49</v>
       </c>
-      <c r="F107" s="43"/>
-      <c r="G107" s="44">
+      <c r="F109" s="43"/>
+      <c r="G109" s="44">
         <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
-        <v>256</v>
-      </c>
-      <c r="B108" s="10">
-        <f>($D$95-A108)/$D$95</f>
-        <v>0.14666666666666667</v>
-      </c>
-      <c r="C108" s="10">
-        <f>B108/$D$97</f>
-        <v>0.60273972602739723</v>
-      </c>
-      <c r="D108" s="10">
-        <v>285</v>
-      </c>
-      <c r="E108" s="10">
-        <v>55</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="10">
-        <v>256</v>
-      </c>
-      <c r="B109" s="10">
-        <f t="shared" ref="B109" si="19">($B$47-A109)/$B$47</f>
-        <v>0.14666666666666667</v>
-      </c>
-      <c r="C109" s="10">
-        <f t="shared" ref="C109:C116" si="20">B109/$D$97</f>
-        <v>0.60273972602739723</v>
-      </c>
-      <c r="D109" s="10">
-        <v>250</v>
-      </c>
-      <c r="E109" s="10">
-        <v>14</v>
-      </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B110" s="10">
-        <f t="shared" ref="B110:B116" si="21">($B$47-A110)/$B$47</f>
-        <v>0.15</v>
+        <f>($D$97-A110)/$D$97</f>
+        <v>0.14666666666666667</v>
       </c>
       <c r="C110" s="10">
-        <f t="shared" si="20"/>
-        <v>0.61643835616438347</v>
+        <f>B110/$D$99</f>
+        <v>0.60273972602739723</v>
       </c>
       <c r="D110" s="10">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="E110" s="10">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="10">
-        <f t="shared" si="21"/>
-        <v>0.15</v>
+        <f t="shared" ref="B111" si="19">($B$48-A111)/$B$48</f>
+        <v>0.14666666666666667</v>
       </c>
       <c r="C111" s="10">
-        <f t="shared" si="20"/>
-        <v>0.61643835616438347</v>
+        <f t="shared" ref="C111:C118" si="20">B111/$D$99</f>
+        <v>0.60273972602739723</v>
       </c>
       <c r="D111" s="10">
-        <v>405</v>
+        <v>250</v>
       </c>
       <c r="E111" s="10">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -14728,7 +14771,7 @@
         <v>255</v>
       </c>
       <c r="B112" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="B112:B118" si="21">($B$48-A112)/$B$48</f>
         <v>0.15</v>
       </c>
       <c r="C112" s="10">
@@ -14736,10 +14779,10 @@
         <v>0.61643835616438347</v>
       </c>
       <c r="D112" s="10">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E112" s="10">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10">
@@ -14759,10 +14802,10 @@
         <v>0.61643835616438347</v>
       </c>
       <c r="D113" s="10">
-        <v>600</v>
+        <v>405</v>
       </c>
       <c r="E113" s="10">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10">
@@ -14771,21 +14814,21 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B114" s="10">
         <f t="shared" si="21"/>
-        <v>0.15333333333333332</v>
+        <v>0.15</v>
       </c>
       <c r="C114" s="10">
         <f t="shared" si="20"/>
-        <v>0.63013698630136983</v>
+        <v>0.61643835616438347</v>
       </c>
       <c r="D114" s="10">
-        <v>618</v>
+        <v>500</v>
       </c>
       <c r="E114" s="10">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10">
@@ -14805,42 +14848,89 @@
         <v>0.61643835616438347</v>
       </c>
       <c r="D115" s="10">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E115" s="10">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B116" s="10">
         <f t="shared" si="21"/>
-        <v>0.14666666666666667</v>
+        <v>0.15333333333333332</v>
       </c>
       <c r="C116" s="10">
         <f t="shared" si="20"/>
-        <v>0.60273972602739723</v>
+        <v>0.63013698630136983</v>
       </c>
       <c r="D116" s="10">
+        <v>618</v>
+      </c>
+      <c r="E116" s="10">
         <v>450</v>
-      </c>
-      <c r="E116" s="10">
-        <v>258</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="10">
+        <v>255</v>
+      </c>
+      <c r="B117" s="10">
+        <f t="shared" si="21"/>
+        <v>0.15</v>
+      </c>
+      <c r="C117" s="10">
+        <f t="shared" si="20"/>
+        <v>0.61643835616438347</v>
+      </c>
+      <c r="D117" s="10">
+        <v>550</v>
+      </c>
+      <c r="E117" s="10">
+        <v>371</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="10">
+        <v>256</v>
+      </c>
+      <c r="B118" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="C118" s="10">
+        <f t="shared" si="20"/>
+        <v>0.60273972602739723</v>
+      </c>
+      <c r="D118" s="10">
+        <v>450</v>
+      </c>
+      <c r="E118" s="10">
+        <v>258</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14848,8 +14938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2708FD-2F43-4DD2-A436-851B1200C17D}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14967,11 +15057,11 @@
         <v>368</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B23" si="0">($B$1-A7)/$B$1</f>
+        <f t="shared" ref="B7:B24" si="0">($B$1-A7)/$B$1</f>
         <v>2.7100271002710027E-3</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:C23" si="1">B7/$B$3</f>
+        <f t="shared" ref="C7:C24" si="1">B7/$B$3</f>
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="D7" s="4">
@@ -15379,6 +15469,28 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>369</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -16028,16 +16140,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E9D2-B33D-45CD-A68E-D7F65B100D82}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16112,11 +16225,11 @@
         <v>334</v>
       </c>
       <c r="B6" s="32">
-        <f t="shared" ref="B6:B11" si="0">($B$1-A6)/$B$1</f>
+        <f t="shared" ref="B6:B12" si="0">($B$1-A6)/$B$1</f>
         <v>0.25942350332594233</v>
       </c>
       <c r="C6" s="32">
-        <f t="shared" ref="C6:C11" si="1">B6/$B$3</f>
+        <f t="shared" ref="C6:C12" si="1">B6/$B$3</f>
         <v>1</v>
       </c>
       <c r="D6" s="32">
@@ -16134,18 +16247,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
-        <v>340</v>
+        <v>451</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" si="0"/>
-        <v>0.24611973392461198</v>
+        <v>0</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" si="1"/>
-        <v>0.94871794871794879</v>
+        <v>0</v>
       </c>
       <c r="D7" s="32">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="E7" s="32">
         <v>0</v>
@@ -16157,18 +16270,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
-        <v>0.23503325942350334</v>
+        <v>0.24611973392461198</v>
       </c>
       <c r="C8" s="32">
         <f t="shared" si="1"/>
-        <v>0.90598290598290609</v>
+        <v>0.94871794871794879</v>
       </c>
       <c r="D8" s="32">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="E8" s="32">
         <v>0</v>
@@ -16180,18 +16293,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
-        <v>0.20177383592017739</v>
+        <v>0.23503325942350334</v>
       </c>
       <c r="C9" s="32">
         <f t="shared" si="1"/>
-        <v>0.7777777777777779</v>
+        <v>0.90598290598290609</v>
       </c>
       <c r="D9" s="32">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="E9" s="32">
         <v>0</v>
@@ -16203,18 +16316,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
-        <v>0.17073170731707318</v>
+        <v>0.20177383592017739</v>
       </c>
       <c r="C10" s="32">
         <f t="shared" si="1"/>
-        <v>0.65811965811965822</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="D10" s="32">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="E10" s="32">
         <v>0</v>
@@ -16226,18 +16339,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
-        <v>6.6518847006651879E-2</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="C11" s="32">
         <f t="shared" si="1"/>
-        <v>0.25641025641025639</v>
+        <v>0.65811965811965822</v>
       </c>
       <c r="D11" s="32">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="E11" s="32">
         <v>0</v>
@@ -16248,26 +16361,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>440</v>
-      </c>
-      <c r="B12" s="13">
-        <f>($B$1-A12)/$B$1</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="C12" s="13">
-        <f>B12/$B$3</f>
-        <v>9.401709401709403E-2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>623</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1281</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
-        <v>1</v>
+      <c r="A12" s="32">
+        <v>421</v>
+      </c>
+      <c r="B12" s="32">
+        <f t="shared" si="0"/>
+        <v>6.6518847006651879E-2</v>
+      </c>
+      <c r="C12" s="32">
+        <f t="shared" si="1"/>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D12" s="32">
+        <v>100</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -16275,41 +16388,41 @@
         <v>440</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" ref="B13:B22" si="2">($B$1-A13)/$B$1</f>
+        <f>($B$1-A13)/$B$1</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="C13" s="13">
-        <f t="shared" ref="C13:C22" si="3">B13/$B$3</f>
+        <f>B13/$B$3</f>
         <v>9.401709401709403E-2</v>
       </c>
       <c r="D13" s="13">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="E13" s="13">
-        <v>1221</v>
+        <v>1281</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="2"/>
-        <v>2.2172949002217297E-2</v>
+        <f t="shared" ref="B14:B23" si="2">($B$1-A14)/$B$1</f>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" si="3"/>
-        <v>8.5470085470085486E-2</v>
+        <f t="shared" ref="C14:C23" si="3">B14/$B$3</f>
+        <v>9.401709401709403E-2</v>
       </c>
       <c r="D14" s="13">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="E14" s="13">
-        <v>1006</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13">
@@ -16318,21 +16431,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>2.2172949002217297E-2</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>8.5470085470085486E-2</v>
       </c>
       <c r="D15" s="13">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="E15" s="13">
-        <v>786</v>
+        <v>1006</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13">
@@ -16341,21 +16454,21 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16" s="13">
         <f t="shared" si="2"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="3"/>
-        <v>6.8376068376068383E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D16" s="13">
-        <v>198</v>
+        <v>403</v>
       </c>
       <c r="E16" s="13">
-        <v>325</v>
+        <v>786</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13">
@@ -16364,21 +16477,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="2"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="3"/>
-        <v>5.9829059829059839E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D17" s="13">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="E17" s="13">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13">
@@ -16387,44 +16500,44 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B18" s="13">
         <f t="shared" si="2"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="3"/>
-        <v>6.8376068376068383E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D18" s="13">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E18" s="13">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B19" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D19" s="13">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="E19" s="13">
-        <v>663</v>
+        <v>444</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
@@ -16444,10 +16557,10 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D20" s="13">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="E20" s="13">
-        <v>882</v>
+        <v>663</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
@@ -16456,21 +16569,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B21" s="13">
         <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="3"/>
-        <v>9.401709401709403E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D21" s="13">
-        <v>543</v>
+        <v>448</v>
       </c>
       <c r="E21" s="13">
-        <v>1097</v>
+        <v>882</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13">
@@ -16479,67 +16592,67 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.401709401709403E-2</v>
       </c>
       <c r="D22" s="13">
-        <v>290</v>
+        <v>543</v>
       </c>
       <c r="E22" s="13">
-        <v>528</v>
+        <v>1097</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>442</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>290</v>
+      </c>
+      <c r="E23" s="13">
+        <v>528</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
-        <v>447</v>
-      </c>
-      <c r="B23" s="33">
-        <f t="shared" ref="B23:B32" si="4">($B$1-A23)/$B$1</f>
-        <v>8.869179600886918E-3</v>
-      </c>
-      <c r="C23" s="33">
-        <f t="shared" ref="C23:C32" si="5">B23/$B$3</f>
-        <v>3.4188034188034191E-2</v>
-      </c>
-      <c r="D23" s="33">
-        <v>234</v>
-      </c>
-      <c r="E23" s="33">
-        <v>463</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B24" s="33">
-        <f t="shared" si="4"/>
-        <v>1.1086474501108648E-2</v>
+        <f t="shared" ref="B24:B33" si="4">($B$1-A24)/$B$1</f>
+        <v>8.869179600886918E-3</v>
       </c>
       <c r="C24" s="33">
-        <f t="shared" si="5"/>
-        <v>4.2735042735042743E-2</v>
+        <f t="shared" ref="C24:C33" si="5">B24/$B$3</f>
+        <v>3.4188034188034191E-2</v>
       </c>
       <c r="D24" s="33">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="E24" s="33">
-        <v>749</v>
+        <v>463</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33">
@@ -16548,21 +16661,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B25" s="33">
         <f t="shared" si="4"/>
-        <v>1.3303769401330377E-2</v>
+        <v>1.1086474501108648E-2</v>
       </c>
       <c r="C25" s="33">
         <f t="shared" si="5"/>
-        <v>5.1282051282051287E-2</v>
+        <v>4.2735042735042743E-2</v>
       </c>
       <c r="D25" s="33">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="E25" s="33">
-        <v>952</v>
+        <v>749</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33">
@@ -16582,10 +16695,10 @@
         <v>5.1282051282051287E-2</v>
       </c>
       <c r="D26" s="33">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="E26" s="33">
-        <v>1072</v>
+        <v>952</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33">
@@ -16594,21 +16707,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B27" s="33">
         <f t="shared" si="4"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.3303769401330377E-2</v>
       </c>
       <c r="C27" s="33">
         <f t="shared" si="5"/>
-        <v>5.9829059829059839E-2</v>
+        <v>5.1282051282051287E-2</v>
       </c>
       <c r="D27" s="33">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="E27" s="33">
-        <v>1185</v>
+        <v>1072</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33">
@@ -16628,10 +16741,10 @@
         <v>5.9829059829059839E-2</v>
       </c>
       <c r="D28" s="33">
-        <v>604</v>
+        <v>552</v>
       </c>
       <c r="E28" s="33">
-        <v>1293</v>
+        <v>1185</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33">
@@ -16640,21 +16753,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" s="33">
         <f t="shared" si="4"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C29" s="33">
         <f t="shared" si="5"/>
-        <v>6.8376068376068383E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D29" s="33">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E29" s="33">
-        <v>1324</v>
+        <v>1293</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33">
@@ -16663,44 +16776,44 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="33">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B30" s="33">
         <f t="shared" si="4"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C30" s="33">
         <f t="shared" si="5"/>
-        <v>5.9829059829059839E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D30" s="33">
-        <v>469</v>
+        <v>620</v>
       </c>
       <c r="E30" s="33">
-        <v>981</v>
+        <v>1324</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" si="4"/>
-        <v>1.3303769401330377E-2</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C31" s="33">
         <f t="shared" si="5"/>
-        <v>5.1282051282051287E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D31" s="33">
-        <v>285</v>
+        <v>469</v>
       </c>
       <c r="E31" s="33">
-        <v>561</v>
+        <v>981</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33">
@@ -16709,21 +16822,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B32" s="33">
         <f t="shared" si="4"/>
-        <v>8.869179600886918E-3</v>
+        <v>1.3303769401330377E-2</v>
       </c>
       <c r="C32" s="33">
         <f t="shared" si="5"/>
-        <v>3.4188034188034191E-2</v>
+        <v>5.1282051282051287E-2</v>
       </c>
       <c r="D32" s="33">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="E32" s="33">
-        <v>285</v>
+        <v>561</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33">
@@ -16731,26 +16844,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>432</v>
-      </c>
-      <c r="B33" s="17">
-        <f t="shared" ref="B33:B43" si="6">($B$1-A33)/$B$1</f>
-        <v>4.2128603104212861E-2</v>
-      </c>
-      <c r="C33" s="17">
-        <f t="shared" ref="C33:C43" si="7">B33/$B$3</f>
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="D33" s="17">
-        <v>175</v>
-      </c>
-      <c r="E33" s="17">
-        <v>108</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17">
-        <v>1</v>
+      <c r="A33" s="33">
+        <v>447</v>
+      </c>
+      <c r="B33" s="33">
+        <f t="shared" si="4"/>
+        <v>8.869179600886918E-3</v>
+      </c>
+      <c r="C33" s="33">
+        <f t="shared" si="5"/>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="D33" s="33">
+        <v>164</v>
+      </c>
+      <c r="E33" s="33">
+        <v>285</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -16758,18 +16871,18 @@
         <v>432</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B34:B44" si="6">($B$1-A34)/$B$1</f>
         <v>4.2128603104212861E-2</v>
       </c>
       <c r="C34" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C34:C44" si="7">B34/$B$3</f>
         <v>0.1623931623931624</v>
       </c>
       <c r="D34" s="17">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="E34" s="17">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17">
@@ -16778,21 +16891,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B35" s="17">
         <f t="shared" si="6"/>
-        <v>4.4345898004434593E-2</v>
+        <v>4.2128603104212861E-2</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="7"/>
-        <v>0.17094017094017097</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="D35" s="17">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="E35" s="17">
-        <v>380</v>
+        <v>267</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17">
@@ -16812,10 +16925,10 @@
         <v>0.17094017094017097</v>
       </c>
       <c r="D36" s="17">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="E36" s="17">
-        <v>591</v>
+        <v>380</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17">
@@ -16824,21 +16937,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B37" s="17">
         <f t="shared" si="6"/>
-        <v>4.6563192904656318E-2</v>
+        <v>4.4345898004434593E-2</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="7"/>
-        <v>0.17948717948717949</v>
+        <v>0.17094017094017097</v>
       </c>
       <c r="D37" s="17">
-        <v>498</v>
+        <v>402</v>
       </c>
       <c r="E37" s="17">
-        <v>794</v>
+        <v>591</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17">
@@ -16847,21 +16960,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B38" s="17">
         <f t="shared" si="6"/>
-        <v>4.878048780487805E-2</v>
+        <v>4.6563192904656318E-2</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="7"/>
-        <v>0.18803418803418806</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="D38" s="17">
-        <v>598</v>
+        <v>498</v>
       </c>
       <c r="E38" s="17">
-        <v>1003</v>
+        <v>794</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17">
@@ -16881,10 +16994,10 @@
         <v>0.18803418803418806</v>
       </c>
       <c r="D39" s="17">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="E39" s="17">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17">
@@ -16904,33 +17017,33 @@
         <v>0.18803418803418806</v>
       </c>
       <c r="D40" s="17">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="E40" s="17">
-        <v>915</v>
+        <v>1038</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" s="17">
         <f t="shared" si="6"/>
-        <v>4.6563192904656318E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="7"/>
-        <v>0.17948717948717949</v>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D41" s="17">
-        <v>455</v>
+        <v>555</v>
       </c>
       <c r="E41" s="17">
-        <v>710</v>
+        <v>915</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17">
@@ -16939,21 +17052,21 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" s="17">
         <f t="shared" si="6"/>
-        <v>4.4345898004434593E-2</v>
+        <v>4.6563192904656318E-2</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="7"/>
-        <v>0.17094017094017097</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="D42" s="17">
-        <v>346</v>
+        <v>455</v>
       </c>
       <c r="E42" s="17">
-        <v>481</v>
+        <v>710</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17">
@@ -16962,21 +17075,21 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="17">
         <f t="shared" si="6"/>
-        <v>4.2128603104212861E-2</v>
+        <v>4.4345898004434593E-2</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="7"/>
-        <v>0.1623931623931624</v>
+        <v>0.17094017094017097</v>
       </c>
       <c r="D43" s="17">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="E43" s="17">
-        <v>180</v>
+        <v>481</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17">
@@ -16984,45 +17097,45 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>414</v>
-      </c>
-      <c r="B44" s="16">
-        <f t="shared" ref="B44:B53" si="8">($B$1-A44)/$B$1</f>
-        <v>8.2039911308203997E-2</v>
-      </c>
-      <c r="C44" s="16">
-        <f t="shared" ref="C44:C53" si="9">B44/$B$3</f>
-        <v>0.31623931623931628</v>
-      </c>
-      <c r="D44" s="16">
-        <v>250</v>
-      </c>
-      <c r="E44" s="16">
-        <v>134</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
-        <v>1</v>
+      <c r="A44" s="17">
+        <v>432</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="6"/>
+        <v>4.2128603104212861E-2</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="7"/>
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="D44" s="17">
+        <v>201</v>
+      </c>
+      <c r="E44" s="17">
+        <v>180</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B45" s="16">
-        <f t="shared" si="8"/>
-        <v>8.4257206208425722E-2</v>
+        <f t="shared" ref="B45:B54" si="8">($B$1-A45)/$B$1</f>
+        <v>8.2039911308203997E-2</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" si="9"/>
-        <v>0.3247863247863248</v>
+        <f t="shared" ref="C45:C54" si="9">B45/$B$3</f>
+        <v>0.31623931623931628</v>
       </c>
       <c r="D45" s="16">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E45" s="16">
-        <v>317</v>
+        <v>134</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -17031,21 +17144,21 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B46" s="16">
         <f t="shared" si="8"/>
-        <v>8.8691796008869186E-2</v>
+        <v>8.4257206208425722E-2</v>
       </c>
       <c r="C46" s="16">
         <f t="shared" si="9"/>
-        <v>0.34188034188034194</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="D46" s="16">
-        <v>451</v>
+        <v>350</v>
       </c>
       <c r="E46" s="16">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -17065,10 +17178,10 @@
         <v>0.34188034188034194</v>
       </c>
       <c r="D47" s="16">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="E47" s="16">
-        <v>585</v>
+        <v>500</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -17077,21 +17190,21 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B48" s="16">
         <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.8691796008869186E-2</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="9"/>
-        <v>0.35042735042735046</v>
+        <v>0.34188034188034194</v>
       </c>
       <c r="D48" s="16">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="E48" s="16">
-        <v>670</v>
+        <v>585</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -17111,10 +17224,10 @@
         <v>0.35042735042735046</v>
       </c>
       <c r="D49" s="16">
-        <v>603</v>
+        <v>550</v>
       </c>
       <c r="E49" s="16">
-        <v>758</v>
+        <v>670</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
@@ -17123,21 +17236,21 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B50" s="16">
         <f t="shared" si="8"/>
-        <v>9.3126385809312637E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="9"/>
-        <v>0.35897435897435898</v>
+        <v>0.35042735042735046</v>
       </c>
       <c r="D50" s="16">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="E50" s="16">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
@@ -17146,44 +17259,44 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B51" s="16">
         <f t="shared" si="8"/>
-        <v>8.8691796008869186E-2</v>
+        <v>9.3126385809312637E-2</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="9"/>
-        <v>0.34188034188034194</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="D51" s="16">
-        <v>399</v>
+        <v>621</v>
       </c>
       <c r="E51" s="16">
-        <v>417</v>
+        <v>790</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B52" s="16">
         <f t="shared" si="8"/>
-        <v>8.4257206208425722E-2</v>
+        <v>8.8691796008869186E-2</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="9"/>
-        <v>0.3247863247863248</v>
+        <v>0.34188034188034194</v>
       </c>
       <c r="D52" s="16">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="E52" s="16">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
@@ -17192,143 +17305,143 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" s="16">
         <f t="shared" si="8"/>
-        <v>8.2039911308203997E-2</v>
+        <v>8.4257206208425722E-2</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="9"/>
-        <v>0.31623931623931628</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="D53" s="16">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="E53" s="16">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>38</v>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>414</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="8"/>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C54" s="16">
+        <f t="shared" si="9"/>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D54" s="16">
+        <v>199</v>
+      </c>
+      <c r="E54" s="16">
+        <v>75</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56">
-        <v>451</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>339</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>23</v>
       </c>
-      <c r="B58">
-        <f>(B56-B57)/B56</f>
+      <c r="B59">
+        <f>(B57-B58)/B57</f>
         <v>0.24833702882483372</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B60" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C60" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D60" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E60" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G60" s="41" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
-        <v>372</v>
-      </c>
-      <c r="B60" s="41">
-        <f>($B$1-A60)/$B$1</f>
-        <v>0.17516629711751663</v>
-      </c>
-      <c r="C60" s="41">
-        <f>B60/$B$58</f>
-        <v>0.70535714285714279</v>
-      </c>
-      <c r="D60" s="41">
-        <v>612</v>
-      </c>
-      <c r="E60" s="41">
-        <v>330</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" s="41">
-        <f t="shared" ref="B61:B72" si="10">($B$1-A61)/$B$1</f>
-        <v>0.17294900221729489</v>
+        <f>($B$1-A61)/$B$1</f>
+        <v>0.17516629711751663</v>
       </c>
       <c r="C61" s="41">
-        <f t="shared" ref="C61:C67" si="11">B61/$B$58</f>
-        <v>0.6964285714285714</v>
+        <f>B61/$B$59</f>
+        <v>0.70535714285714279</v>
       </c>
       <c r="D61" s="41">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="E61" s="41">
-        <v>221</v>
+        <v>330</v>
       </c>
       <c r="F61" s="41"/>
       <c r="G61" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B62" s="41">
-        <f t="shared" si="10"/>
-        <v>0.17073170731707318</v>
+        <f t="shared" ref="B62:B73" si="10">($B$1-A62)/$B$1</f>
+        <v>0.17294900221729489</v>
       </c>
       <c r="C62" s="41">
-        <f t="shared" si="11"/>
-        <v>0.6875</v>
+        <f t="shared" ref="C62:C68" si="11">B62/$B$59</f>
+        <v>0.6964285714285714</v>
       </c>
       <c r="D62" s="41">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E62" s="41">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="41">
@@ -17348,10 +17461,10 @@
         <v>0.6875</v>
       </c>
       <c r="D63" s="41">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="E63" s="41">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F63" s="41"/>
       <c r="G63" s="41">
@@ -17371,33 +17484,33 @@
         <v>0.6875</v>
       </c>
       <c r="D64" s="41">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="E64" s="41">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F64" s="41"/>
       <c r="G64" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B65" s="41">
         <f t="shared" si="10"/>
-        <v>0.17294900221729489</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="C65" s="41">
         <f t="shared" si="11"/>
-        <v>0.6964285714285714</v>
+        <v>0.6875</v>
       </c>
       <c r="D65" s="41">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="E65" s="41">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="F65" s="41"/>
       <c r="G65" s="41">
@@ -17406,21 +17519,21 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="41">
         <f t="shared" si="10"/>
-        <v>0.17516629711751663</v>
+        <v>0.17294900221729489</v>
       </c>
       <c r="C66" s="41">
         <f t="shared" si="11"/>
-        <v>0.70535714285714279</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="D66" s="41">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E66" s="41">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="F66" s="41"/>
       <c r="G66" s="41">
@@ -17440,10 +17553,10 @@
         <v>0.70535714285714279</v>
       </c>
       <c r="D67" s="41">
-        <v>628</v>
+        <v>550</v>
       </c>
       <c r="E67" s="41">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="F67" s="41"/>
       <c r="G67" s="41">
@@ -17451,49 +17564,49 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
+      <c r="A68" s="41">
+        <v>372</v>
+      </c>
+      <c r="B68" s="41">
+        <f t="shared" si="10"/>
+        <v>0.17516629711751663</v>
+      </c>
+      <c r="C68" s="41">
+        <f t="shared" si="11"/>
+        <v>0.70535714285714279</v>
+      </c>
+      <c r="D68" s="41">
+        <v>628</v>
+      </c>
+      <c r="E68" s="41">
+        <v>361</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
         <v>341</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B69" s="12">
         <f t="shared" si="10"/>
         <v>0.24390243902439024</v>
       </c>
-      <c r="C68" s="12">
-        <f>B68/$B$58</f>
+      <c r="C69" s="12">
+        <f>B69/$B$59</f>
         <v>0.9821428571428571</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <v>615</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>27</v>
-      </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
-        <v>342</v>
-      </c>
-      <c r="B69" s="12">
-        <f t="shared" si="10"/>
-        <v>0.24168514412416853</v>
-      </c>
-      <c r="C69" s="12">
-        <f>B69/$B$58</f>
-        <v>0.9732142857142857</v>
-      </c>
-      <c r="D69" s="12">
-        <v>594</v>
-      </c>
-      <c r="E69" s="12">
-        <v>18</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -17505,14 +17618,14 @@
         <v>0.24168514412416853</v>
       </c>
       <c r="C70" s="12">
-        <f>B70/$B$58</f>
+        <f>B70/$B$59</f>
         <v>0.9732142857142857</v>
       </c>
       <c r="D70" s="12">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="E70" s="12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12">
@@ -17528,18 +17641,18 @@
         <v>0.24168514412416853</v>
       </c>
       <c r="C71" s="12">
-        <f>B71/$B$58</f>
+        <f>B71/$B$59</f>
         <v>0.9732142857142857</v>
       </c>
       <c r="D71" s="12">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E71" s="12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -17551,32 +17664,56 @@
         <v>0.24168514412416853</v>
       </c>
       <c r="C72" s="12">
-        <f>B72/$B$58</f>
+        <f>B72/$B$59</f>
         <v>0.9732142857142857</v>
       </c>
       <c r="D72" s="12">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="E72" s="12">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12">
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>342</v>
+      </c>
+      <c r="B73" s="12">
+        <f t="shared" si="10"/>
+        <v>0.24168514412416853</v>
+      </c>
+      <c r="C73" s="12">
+        <f>B73/$B$59</f>
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="D73" s="12">
+        <v>600</v>
+      </c>
+      <c r="E73" s="12">
+        <v>31</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17589,7 +17726,7 @@
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -17603,7 +17740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -17614,7 +17751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -17626,7 +17763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
@@ -17636,8 +17773,11 @@
       <c r="N4" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -17668,17 +17808,21 @@
       <c r="N5" s="24">
         <v>382</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f>(M5-N5)/M5</f>
+        <v>0.24950884086444008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>385</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" ref="B6:B11" si="0">($B$1-A6)/$B$1</f>
+        <f t="shared" ref="B6:B12" si="0">($B$1-A6)/$B$1</f>
         <v>0.24361493123772102</v>
       </c>
       <c r="C6" s="13">
-        <f t="shared" ref="C6:C11" si="1">B6/$B$3</f>
+        <f t="shared" ref="C6:C12" si="1">B6/$B$3</f>
         <v>1</v>
       </c>
       <c r="D6" s="13">
@@ -17699,52 +17843,45 @@
       </c>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
-        <v>391</v>
+        <v>509</v>
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>0.23182711198428291</v>
+        <v>0</v>
       </c>
       <c r="C7" s="13">
         <f t="shared" si="1"/>
-        <v>0.95161290322580649</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <v>626</v>
-      </c>
-      <c r="K7" s="31">
-        <v>1302</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
-        <v>0.21414538310412573</v>
+        <v>0.23182711198428291</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
-        <v>0.87903225806451613</v>
+        <v>0.95161290322580649</v>
       </c>
       <c r="D8" s="13">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -17753,21 +17890,30 @@
       <c r="G8" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="28">
+        <v>626</v>
+      </c>
+      <c r="K8" s="31">
+        <v>1302</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
-        <v>0.18860510805500982</v>
+        <v>0.21414538310412573</v>
       </c>
       <c r="C9" s="13">
         <f t="shared" si="1"/>
-        <v>0.77419354838709675</v>
+        <v>0.87903225806451613</v>
       </c>
       <c r="D9" s="13">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -17777,20 +17923,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
-        <v>0.12573673870333987</v>
+        <v>0.18860510805500982</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" si="1"/>
-        <v>0.5161290322580645</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="D10" s="13">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -17800,20 +17946,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
-        <v>4.1257367387033402E-2</v>
+        <v>0.12573673870333987</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="1"/>
-        <v>0.16935483870967744</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D11" s="13">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -17823,115 +17969,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>488</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1257367387033402E-2</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.16935483870967744</v>
+      </c>
+      <c r="D12" s="13">
+        <v>95</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>499</v>
       </c>
-      <c r="B12" s="11">
-        <f>($B$1-A12)/$B$1</f>
+      <c r="B13" s="11">
+        <f>($B$1-A13)/$B$1</f>
         <v>1.9646365422396856E-2</v>
       </c>
-      <c r="C12" s="11">
-        <f>B12/$B$3</f>
+      <c r="C13" s="11">
+        <f>B13/$B$3</f>
         <v>8.0645161290322578E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>624</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>1316</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>501</v>
-      </c>
-      <c r="B13" s="11">
-        <f t="shared" ref="B13:B20" si="2">($B$1-A13)/$B$1</f>
-        <v>1.5717092337917484E-2</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" ref="C13:C20" si="3">B13/$B$3</f>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>600</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1259</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B14" s="11">
-        <f t="shared" si="2"/>
-        <v>1.37524557956778E-2</v>
+        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
+        <v>1.5717092337917484E-2</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" si="3"/>
-        <v>5.6451612903225812E-2</v>
+        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="D14" s="11">
-        <v>495</v>
+        <v>600</v>
       </c>
       <c r="E14" s="11">
-        <v>1013</v>
+        <v>1259</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B15" s="11">
         <f t="shared" si="2"/>
-        <v>9.823182711198428E-3</v>
+        <v>1.37524557956778E-2</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="3"/>
-        <v>4.0322580645161289E-2</v>
+        <v>5.6451612903225812E-2</v>
       </c>
       <c r="D15" s="11">
-        <v>403</v>
+        <v>495</v>
       </c>
       <c r="E15" s="11">
-        <v>811</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" si="2"/>
-        <v>7.8585461689587421E-3</v>
+        <v>9.823182711198428E-3</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
+        <v>4.0322580645161289E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="E16" s="11">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
@@ -17951,10 +18097,10 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="D17" s="11">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="E17" s="11">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
@@ -17963,21 +18109,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B18" s="11">
         <f t="shared" si="2"/>
-        <v>5.893909626719057E-3</v>
+        <v>7.8585461689587421E-3</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="3"/>
-        <v>2.4193548387096774E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="D18" s="11">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E18" s="11">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
@@ -17997,33 +18143,33 @@
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="D19" s="11">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="E19" s="11">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="2"/>
-        <v>1.1787819253438114E-2</v>
+        <v>5.893909626719057E-3</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="3"/>
-        <v>4.8387096774193547E-2</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="D20" s="11">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="E20" s="11">
-        <v>704</v>
+        <v>444</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
@@ -18031,45 +18177,45 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>419</v>
-      </c>
-      <c r="B21" s="8">
-        <f t="shared" ref="B21:B28" si="4">($B$1-A21)/$B$1</f>
-        <v>0.17681728880157171</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:C28" si="5">B21/$B$3</f>
-        <v>0.72580645161290325</v>
-      </c>
-      <c r="D21" s="8">
-        <v>335</v>
-      </c>
-      <c r="E21" s="8">
-        <v>5</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="A21" s="11">
+        <v>503</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1787819253438114E-2</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>355</v>
+      </c>
+      <c r="E21" s="11">
+        <v>704</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18271119842829076</v>
+        <f t="shared" ref="B22:B29" si="4">($B$1-A22)/$B$1</f>
+        <v>0.17681728880157171</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
+        <f t="shared" ref="C22:C29" si="5">B22/$B$3</f>
+        <v>0.72580645161290325</v>
       </c>
       <c r="D22" s="8">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="E22" s="8">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8">
@@ -18089,10 +18235,10 @@
         <v>0.75</v>
       </c>
       <c r="D23" s="8">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="E23" s="8">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8">
@@ -18101,21 +18247,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="4"/>
-        <v>0.18664047151277013</v>
+        <v>0.18271119842829076</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="5"/>
-        <v>0.7661290322580645</v>
+        <v>0.75</v>
       </c>
       <c r="D24" s="8">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E24" s="8">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
@@ -18135,10 +18281,10 @@
         <v>0.7661290322580645</v>
       </c>
       <c r="D25" s="8">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E25" s="8">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8">
@@ -18158,10 +18304,10 @@
         <v>0.7661290322580645</v>
       </c>
       <c r="D26" s="8">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E26" s="8">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8">
@@ -18170,25 +18316,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="4"/>
-        <v>0.18074656188605109</v>
+        <v>0.18664047151277013</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="5"/>
-        <v>0.74193548387096786</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D27" s="8">
-        <v>447</v>
+        <v>620</v>
       </c>
       <c r="E27" s="8">
-        <v>163</v>
+        <v>340</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -18204,10 +18350,10 @@
         <v>0.74193548387096786</v>
       </c>
       <c r="D28" s="8">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="E28" s="8">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
@@ -18215,45 +18361,45 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <v>458</v>
-      </c>
-      <c r="B29" s="15">
-        <f>($B$1-A29)/$B$1</f>
-        <v>0.10019646365422397</v>
-      </c>
-      <c r="C29" s="15">
-        <f>B29/$B$3</f>
-        <v>0.41129032258064518</v>
-      </c>
-      <c r="D29" s="15">
-        <v>187</v>
-      </c>
-      <c r="E29" s="15">
-        <v>4</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15">
-        <v>1</v>
+      <c r="A29" s="8">
+        <v>417</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="4"/>
+        <v>0.18074656188605109</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="5"/>
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="D29" s="8">
+        <v>376</v>
+      </c>
+      <c r="E29" s="8">
+        <v>90</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" ref="B30:B40" si="6">($B$1-A30)/$B$1</f>
-        <v>0.10412573673870335</v>
+        <f>($B$1-A30)/$B$1</f>
+        <v>0.10019646365422397</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ref="C30:C40" si="7">B30/$B$3</f>
-        <v>0.42741935483870969</v>
+        <f>B30/$B$3</f>
+        <v>0.41129032258064518</v>
       </c>
       <c r="D30" s="15">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="E30" s="15">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15">
@@ -18262,21 +18408,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
+        <f t="shared" ref="B31:B41" si="6">($B$1-A31)/$B$1</f>
+        <v>0.10412573673870335</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
+        <f t="shared" ref="C31:C41" si="7">B31/$B$3</f>
+        <v>0.42741935483870969</v>
       </c>
       <c r="D31" s="15">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="E31" s="15">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15">
@@ -18285,21 +18431,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B32" s="15">
         <f t="shared" si="6"/>
-        <v>0.10805500982318271</v>
+        <v>0.10609037328094302</v>
       </c>
       <c r="C32" s="15">
         <f t="shared" si="7"/>
-        <v>0.44354838709677419</v>
+        <v>0.43548387096774194</v>
       </c>
       <c r="D32" s="15">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E32" s="15">
-        <v>360</v>
+        <v>194</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15">
@@ -18319,10 +18465,10 @@
         <v>0.44354838709677419</v>
       </c>
       <c r="D33" s="15">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="E33" s="15">
-        <v>525</v>
+        <v>360</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15">
@@ -18331,21 +18477,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B34" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10805500982318271</v>
       </c>
       <c r="C34" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.44354838709677419</v>
       </c>
       <c r="D34" s="15">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="E34" s="15">
-        <v>604</v>
+        <v>525</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -18365,10 +18511,10 @@
         <v>0.45967741935483875</v>
       </c>
       <c r="D35" s="15">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="E35" s="15">
-        <v>688</v>
+        <v>604</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15">
@@ -18388,10 +18534,10 @@
         <v>0.45967741935483875</v>
       </c>
       <c r="D36" s="15">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="E36" s="15">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15">
@@ -18400,25 +18546,25 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B37" s="15">
         <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C37" s="15">
         <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D37" s="15">
-        <v>525</v>
+        <v>622</v>
       </c>
       <c r="E37" s="15">
-        <v>566</v>
+        <v>720</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -18434,10 +18580,10 @@
         <v>0.43548387096774194</v>
       </c>
       <c r="D38" s="15">
-        <v>349</v>
+        <v>525</v>
       </c>
       <c r="E38" s="15">
-        <v>282</v>
+        <v>566</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
@@ -18446,21 +18592,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B39" s="15">
         <f t="shared" si="6"/>
-        <v>0.10216110019646366</v>
+        <v>0.10609037328094302</v>
       </c>
       <c r="C39" s="15">
         <f t="shared" si="7"/>
-        <v>0.41935483870967744</v>
+        <v>0.43548387096774194</v>
       </c>
       <c r="D39" s="15">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="E39" s="15">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
@@ -18469,67 +18615,67 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B40" s="15">
         <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
+        <v>0.10216110019646366</v>
       </c>
       <c r="C40" s="15">
         <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="D40" s="15">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="E40" s="15">
-        <v>446</v>
+        <v>39</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>482</v>
-      </c>
-      <c r="B41" s="16">
-        <f t="shared" ref="B41:B53" si="8">($B$1-A41)/$B$1</f>
-        <v>5.304518664047151E-2</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" ref="C41:C53" si="9">B41/$B$3</f>
-        <v>0.21774193548387097</v>
-      </c>
-      <c r="D41" s="16">
-        <v>130</v>
-      </c>
-      <c r="E41" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16">
+      <c r="A41" s="15">
+        <v>455</v>
+      </c>
+      <c r="B41" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="7"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D41" s="15">
+        <v>450</v>
+      </c>
+      <c r="E41" s="15">
+        <v>446</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B42" s="16">
-        <f t="shared" si="8"/>
-        <v>5.50098231827112E-2</v>
+        <f t="shared" ref="B42:B54" si="8">($B$1-A42)/$B$1</f>
+        <v>5.304518664047151E-2</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="9"/>
-        <v>0.22580645161290325</v>
+        <f t="shared" ref="C42:C54" si="9">B42/$B$3</f>
+        <v>0.21774193548387097</v>
       </c>
       <c r="D42" s="16">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="E42" s="16">
-        <v>149</v>
+        <v>4.3</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
@@ -18549,10 +18695,10 @@
         <v>0.22580645161290325</v>
       </c>
       <c r="D43" s="16">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="E43" s="16">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
@@ -18561,21 +18707,21 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B44" s="16">
         <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
+        <v>5.50098231827112E-2</v>
       </c>
       <c r="C44" s="16">
         <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
+        <v>0.22580645161290325</v>
       </c>
       <c r="D44" s="16">
-        <v>402</v>
+        <v>299</v>
       </c>
       <c r="E44" s="16">
-        <v>563</v>
+        <v>356</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
@@ -18584,21 +18730,21 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B45" s="16">
         <f t="shared" si="8"/>
-        <v>5.8939096267190572E-2</v>
+        <v>5.6974459724950882E-2</v>
       </c>
       <c r="C45" s="16">
         <f t="shared" si="9"/>
-        <v>0.24193548387096775</v>
+        <v>0.23387096774193547</v>
       </c>
       <c r="D45" s="16">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="E45" s="16">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -18618,10 +18764,10 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="D46" s="16">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="E46" s="16">
-        <v>762</v>
+        <v>622</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -18630,21 +18776,21 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B47" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.8939096267190572E-2</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.24193548387096775</v>
       </c>
       <c r="D47" s="16">
-        <v>603</v>
+        <v>501</v>
       </c>
       <c r="E47" s="16">
-        <v>967</v>
+        <v>762</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -18664,10 +18810,10 @@
         <v>0.25</v>
       </c>
       <c r="D48" s="16">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="E48" s="16">
-        <v>1006</v>
+        <v>967</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -18687,33 +18833,33 @@
         <v>0.25</v>
       </c>
       <c r="D49" s="16">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="E49" s="16">
-        <v>868</v>
+        <v>1006</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B50" s="16">
         <f t="shared" si="8"/>
-        <v>5.8939096267190572E-2</v>
+        <v>6.0903732809430254E-2</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="9"/>
-        <v>0.24193548387096775</v>
+        <v>0.25</v>
       </c>
       <c r="D50" s="16">
-        <v>348</v>
+        <v>553</v>
       </c>
       <c r="E50" s="16">
-        <v>456</v>
+        <v>868</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
@@ -18722,21 +18868,21 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B51" s="16">
         <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
+        <v>5.8939096267190572E-2</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
+        <v>0.24193548387096775</v>
       </c>
       <c r="D51" s="16">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="E51" s="16">
-        <v>261</v>
+        <v>456</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
@@ -18756,41 +18902,65 @@
         <v>0.23387096774193547</v>
       </c>
       <c r="D52" s="16">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="E52" s="16">
-        <v>515</v>
+        <v>261</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B53" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.6974459724950882E-2</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.23387096774193547</v>
       </c>
       <c r="D53" s="16">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="E53" s="16">
-        <v>714</v>
+        <v>515</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>478</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="8"/>
+        <v>6.0903732809430254E-2</v>
+      </c>
+      <c r="C54" s="16">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="D54" s="16">
+        <v>476</v>
+      </c>
+      <c r="E54" s="16">
+        <v>714</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>